--- a/问题记录/《项目问题记录表》-南京实施部-陈乾维.xlsx
+++ b/问题记录/《项目问题记录表》-南京实施部-陈乾维.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
   <si>
     <t>日期</t>
   </si>
@@ -43,7 +43,7 @@
     <t>浩顺机器电子秤在确定数量后，增减反应慢</t>
   </si>
   <si>
-    <t>北京同事远程调试，补发新包</t>
+    <t>北京同事远程调试，补发新包，覆盖1208版本</t>
   </si>
   <si>
     <t>来福家大食堂</t>
@@ -58,19 +58,43 @@
     <t>广州猪肚鸡</t>
   </si>
   <si>
-    <t>在客显设置中设置选择正确后，客显无反馈数值。</t>
-  </si>
-  <si>
-    <t>保存后，重启电脑，解决。</t>
+    <t>在客显设置中设置正确后，客显却无反馈数值显示。</t>
+  </si>
+  <si>
+    <t>保存后，需要重启电脑，解决。</t>
   </si>
   <si>
     <t>渠道部同事问题</t>
   </si>
   <si>
-    <t>打印机开头有“创”字</t>
-  </si>
-  <si>
-    <t>走api打印  打印记端口改成(win-0-10)</t>
+    <t>无</t>
+  </si>
+  <si>
+    <t>打印机打印纸开头有“创”字</t>
+  </si>
+  <si>
+    <t>走api打印  打印记端口改成(win-0-10)（一部分打印机设置无用，需刷字库）</t>
+  </si>
+  <si>
+    <t>邗江区蛙小子餐饮店</t>
+  </si>
+  <si>
+    <t>离职</t>
+  </si>
+  <si>
+    <t>排队等位tv端轮播图片因重新绑定过设备，导致之前图片无删除选项，无法删除</t>
+  </si>
+  <si>
+    <t>卸载tv端排队等位app，前往help.hualala.com下载tv端app重装即可</t>
+  </si>
+  <si>
+    <t>小小河边鱼六合店</t>
+  </si>
+  <si>
+    <t>报表系统口味做法统计表，数据错误</t>
+  </si>
+  <si>
+    <t>将data文件夹发给北京同事，联系后表示saas端数据有问题，北京同事表示点菜宝数据bug，暂时先放一放</t>
   </si>
 </sst>
 </file>
@@ -115,13 +139,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -145,44 +162,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -201,9 +180,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -224,21 +203,58 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,6 +270,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,6 +298,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -293,168 +479,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,17 +563,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -580,6 +593,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -588,10 +612,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -600,137 +624,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -744,16 +768,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1106,15 +1136,15 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.0416666666667" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.0916666666667" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.6666666666667" style="3" customWidth="1"/>
+    <col min="2" max="2" width="7.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.875" style="3" customWidth="1"/>
     <col min="5" max="5" width="70.2583333333333" style="4" customWidth="1"/>
     <col min="6" max="6" width="71.2" style="4" customWidth="1"/>
   </cols>
@@ -1132,24 +1162,24 @@
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="6">
+      <c r="A2" s="7">
         <v>43080</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="8">
         <v>50</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -1160,16 +1190,16 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="6">
+      <c r="A3" s="7">
         <v>43084</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="8">
         <v>50</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -1180,16 +1210,16 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="6">
+      <c r="A4" s="7">
         <v>43085</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="8">
         <v>50</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -1199,48 +1229,78 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="6">
+    <row r="5" ht="27" spans="1:6">
+      <c r="A5" s="7">
         <v>43102</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="8">
         <v>1</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" ht="27" spans="1:6">
+      <c r="A6" s="7">
+        <v>43105</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" ht="27" spans="1:6">
+      <c r="A7" s="7">
+        <v>43107</v>
+      </c>
+      <c r="B7" s="8">
+        <v>1</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7" s="7"/>
-      <c r="D7" s="7"/>
+      <c r="E7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="7"/>
+      <c r="B8" s="8"/>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="7"/>
+      <c r="B9" s="8"/>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="7"/>
+      <c r="B10" s="8"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/问题记录/《项目问题记录表》-南京实施部-陈乾维.xlsx
+++ b/问题记录/《项目问题记录表》-南京实施部-陈乾维.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
   <si>
     <t>日期</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>小小河边鱼六合店</t>
+  </si>
+  <si>
+    <t>潘辰</t>
   </si>
   <si>
     <t>报表系统口味做法统计表，数据错误</t>
@@ -103,9 +106,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -139,6 +142,72 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -164,6 +233,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -178,106 +271,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,12 +301,144 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -316,78 +451,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -400,42 +463,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -455,30 +482,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,6 +510,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -527,6 +545,26 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,43 +602,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,10 +615,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -624,133 +627,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1280,13 +1283,13 @@
         <v>24</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="2:2">

--- a/问题记录/《项目问题记录表》-南京实施部-陈乾维.xlsx
+++ b/问题记录/《项目问题记录表》-南京实施部-陈乾维.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
   <si>
     <t>日期</t>
   </si>
@@ -79,7 +79,7 @@
     <t>邗江区蛙小子餐饮店</t>
   </si>
   <si>
-    <t>离职</t>
+    <t>施潇雨</t>
   </si>
   <si>
     <t>排队等位tv端轮播图片因重新绑定过设备，导致之前图片无删除选项，无法删除</t>
@@ -98,6 +98,18 @@
   </si>
   <si>
     <t>将data文件夹发给北京同事，联系后表示saas端数据有问题，北京同事表示点菜宝数据bug，暂时先放一放</t>
+  </si>
+  <si>
+    <t>1月19</t>
+  </si>
+  <si>
+    <t>小小河边鱼马鞍山店</t>
+  </si>
+  <si>
+    <t>点菜宝选套餐中的锅底，无法更改口味、作法信息</t>
+  </si>
+  <si>
+    <t>关闭点菜宝套餐分类选择</t>
   </si>
 </sst>
 </file>
@@ -105,10 +117,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -149,65 +161,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -231,6 +184,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,32 +262,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,13 +313,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,6 +361,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -337,6 +427,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -349,7 +475,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,126 +494,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,21 +522,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -545,26 +542,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,6 +578,41 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -615,10 +627,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -627,133 +639,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1138,8 +1150,8 @@
   <sheetPr/>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1292,8 +1304,25 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
-      <c r="B8" s="8"/>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="8"/>

--- a/问题记录/《项目问题记录表》-南京实施部-陈乾维.xlsx
+++ b/问题记录/《项目问题记录表》-南京实施部-陈乾维.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
   <si>
     <t>日期</t>
   </si>
@@ -98,9 +98,6 @@
   </si>
   <si>
     <t>将data文件夹发给北京同事，联系后表示saas端数据有问题，北京同事表示点菜宝数据bug，暂时先放一放</t>
-  </si>
-  <si>
-    <t>1月19</t>
   </si>
   <si>
     <t>小小河边鱼马鞍山店</t>
@@ -117,10 +114,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -276,23 +273,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,6 +316,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -331,30 +340,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -367,48 +364,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -427,13 +424,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,54 +491,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,177 +624,174 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1150,8 +1144,8 @@
   <sheetPr/>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1162,39 +1156,40 @@
     <col min="4" max="4" width="12.875" style="3" customWidth="1"/>
     <col min="5" max="5" width="70.2583333333333" style="4" customWidth="1"/>
     <col min="6" max="6" width="71.2" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20.25" spans="1:6">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="7">
+      <c r="A2" s="8">
         <v>43080</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="3">
         <v>50</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -1205,16 +1200,16 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="7">
+      <c r="A3" s="8">
         <v>43084</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="3">
         <v>50</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -1225,16 +1220,16 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="7">
+      <c r="A4" s="8">
         <v>43085</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="3">
         <v>50</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -1245,16 +1240,16 @@
       </c>
     </row>
     <row r="5" ht="27" spans="1:6">
-      <c r="A5" s="7">
+      <c r="A5" s="8">
         <v>43102</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -1265,16 +1260,16 @@
       </c>
     </row>
     <row r="6" ht="27" spans="1:6">
-      <c r="A6" s="7">
+      <c r="A6" s="8">
         <v>43105</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="3">
         <v>1</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -1285,16 +1280,16 @@
       </c>
     </row>
     <row r="7" ht="27" spans="1:6">
-      <c r="A7" s="7">
+      <c r="A7" s="8">
         <v>43107</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="3">
         <v>1</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -1305,34 +1300,27 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="8">
+        <v>43119</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="B8" s="8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>31</v>
-      </c>
     </row>
-    <row r="9" spans="2:2">
-      <c r="B9" s="8"/>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" s="8"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
+    <row r="11" spans="1:1">
+      <c r="A11" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/问题记录/《项目问题记录表》-南京实施部-陈乾维.xlsx
+++ b/问题记录/《项目问题记录表》-南京实施部-陈乾维.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
   <si>
     <t>日期</t>
   </si>
@@ -107,6 +107,15 @@
   </si>
   <si>
     <t>关闭点菜宝套餐分类选择</t>
+  </si>
+  <si>
+    <t>乌龙煎</t>
+  </si>
+  <si>
+    <t>外卖出单菜品规格错误，因之前关联的外卖菜品，进行过修改，取消菜品关联即可</t>
+  </si>
+  <si>
+    <t>加临时菜方便出单</t>
   </si>
 </sst>
 </file>
@@ -115,9 +124,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1144,8 +1153,8 @@
   <sheetPr/>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1319,6 +1328,26 @@
         <v>30</v>
       </c>
     </row>
+    <row r="9" ht="27" spans="1:6">
+      <c r="A9" s="8">
+        <v>43164</v>
+      </c>
+      <c r="B9" s="3">
+        <v>10</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
     <row r="11" spans="1:1">
       <c r="A11" s="8"/>
     </row>

--- a/问题记录/《项目问题记录表》-南京实施部-陈乾维.xlsx
+++ b/问题记录/《项目问题记录表》-南京实施部-陈乾维.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
   <si>
     <t>日期</t>
   </si>
@@ -107,6 +107,15 @@
   </si>
   <si>
     <t>关闭点菜宝套餐分类选择</t>
+  </si>
+  <si>
+    <t>茶阡陌</t>
+  </si>
+  <si>
+    <t>U3单屏触摸屏右下角状态栏弹出报错提示，后点击触摸屏无反应</t>
+  </si>
+  <si>
+    <t>卸载当前驱动，安装eGalaxTouch_5.12.0.10517版本驱动解决，后商户无反馈此问题</t>
   </si>
   <si>
     <t>乌龙煎</t>
@@ -124,9 +133,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -160,8 +169,82 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,41 +273,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -246,58 +307,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -319,6 +328,96 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -349,19 +448,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,90 +485,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,6 +533,45 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,36 +600,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -603,25 +621,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,10 +642,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -645,133 +654,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1151,10 +1160,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1330,10 +1339,10 @@
     </row>
     <row r="9" ht="27" spans="1:6">
       <c r="A9" s="8">
-        <v>43164</v>
+        <v>43160</v>
       </c>
       <c r="B9" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>31</v>
@@ -1348,8 +1357,28 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="8"/>
+    <row r="10" ht="27" spans="1:6">
+      <c r="A10" s="8">
+        <v>43164</v>
+      </c>
+      <c r="B10" s="3">
+        <v>10</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/问题记录/《项目问题记录表》-南京实施部-陈乾维.xlsx
+++ b/问题记录/《项目问题记录表》-南京实施部-陈乾维.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
   <si>
     <t>日期</t>
   </si>
@@ -34,7 +34,7 @@
     <t>解决方法</t>
   </si>
   <si>
-    <t>袁亮宏专业水饺店</t>
+    <t>袁亮宏专业水饺云吞店</t>
   </si>
   <si>
     <t>陈乾维</t>
@@ -109,6 +109,12 @@
     <t>关闭点菜宝套餐分类选择</t>
   </si>
   <si>
+    <t>浩顺一体秤称重底座晃动，影响正常收银操作</t>
+  </si>
+  <si>
+    <t>联系南京浩顺办事处人员前往修理，非该公司人员勿拆机器，以免出现影响售后</t>
+  </si>
+  <si>
     <t>茶阡陌</t>
   </si>
   <si>
@@ -121,10 +127,19 @@
     <t>乌龙煎</t>
   </si>
   <si>
-    <t>外卖出单菜品规格错误，因之前关联的外卖菜品，进行过修改，取消菜品关联即可</t>
-  </si>
-  <si>
-    <t>加临时菜方便出单</t>
+    <t>外卖出单菜品规格错误，因之前关联的外卖菜品，修改过外卖平台菜品参数，取消菜品关联即可</t>
+  </si>
+  <si>
+    <t>取消关联，加临时菜方便出单</t>
+  </si>
+  <si>
+    <t>石器烤肉</t>
+  </si>
+  <si>
+    <t>天之河4G机器SaaS概率性出现无法开台、卡死情况，卸载美团小百合和360等无用软件之后，问题并未解决</t>
+  </si>
+  <si>
+    <t>重装操作系统解决</t>
   </si>
 </sst>
 </file>
@@ -132,10 +147,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -169,6 +184,73 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -177,82 +259,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,41 +314,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -328,187 +343,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,17 +552,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,15 +585,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -591,11 +600,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -619,21 +649,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -642,145 +657,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1160,10 +1175,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1322,7 +1337,7 @@
         <v>43119</v>
       </c>
       <c r="B8" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>28</v>
@@ -1337,48 +1352,88 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" ht="27" spans="1:6">
+    <row r="9" spans="1:6">
       <c r="A9" s="8">
-        <v>43160</v>
+        <v>43130</v>
       </c>
       <c r="B9" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="10" ht="27" spans="1:6">
       <c r="A10" s="8">
-        <v>43164</v>
+        <v>43160</v>
       </c>
       <c r="B10" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="4" t="s">
+    </row>
+    <row r="11" ht="27" spans="1:6">
+      <c r="A11" s="8">
+        <v>43164</v>
+      </c>
+      <c r="B11" s="3">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>36</v>
       </c>
+      <c r="D11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="8"/>
+    <row r="12" ht="27" spans="1:6">
+      <c r="A12" s="8">
+        <v>43192</v>
+      </c>
+      <c r="B12" s="3">
+        <v>14</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/问题记录/《项目问题记录表》-南京实施部-陈乾维.xlsx
+++ b/问题记录/《项目问题记录表》-南京实施部-陈乾维.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
   <si>
     <t>日期</t>
   </si>
@@ -140,6 +140,15 @@
   </si>
   <si>
     <t>重装操作系统解决</t>
+  </si>
+  <si>
+    <t>大卤爷</t>
+  </si>
+  <si>
+    <t>使用抵用券后，收银系统将抵用券的优惠金额进入实收，导致报表实收出错</t>
+  </si>
+  <si>
+    <t>经排查，WebAPP版本号20180321有bug，更新至WebAPP版本号20180408解决</t>
   </si>
 </sst>
 </file>
@@ -147,10 +156,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -184,17 +193,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -206,21 +232,88 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -229,15 +322,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,84 +331,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,25 +352,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,157 +520,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,8 +564,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,7 +589,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,32 +609,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,6 +633,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -640,15 +658,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -657,10 +666,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -669,133 +678,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1178,7 +1187,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1432,8 +1441,25 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="8"/>
+    <row r="13" spans="1:6">
+      <c r="A13" s="8">
+        <v>43203</v>
+      </c>
+      <c r="B13" s="3">
+        <v>15</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/问题记录/《项目问题记录表》-南京实施部-陈乾维.xlsx
+++ b/问题记录/《项目问题记录表》-南京实施部-陈乾维.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
   <si>
     <t>日期</t>
   </si>
@@ -149,6 +149,33 @@
   </si>
   <si>
     <t>经排查，WebAPP版本号20180321有bug，更新至WebAPP版本号20180408解决</t>
+  </si>
+  <si>
+    <t>对接美团外卖后，美团外卖实收金额记为优惠金额</t>
+  </si>
+  <si>
+    <t>店长将结账科目外卖中的美团外卖科目关闭，开启后即可恢复正常</t>
+  </si>
+  <si>
+    <t>乌茶邦</t>
+  </si>
+  <si>
+    <t>刘乐乐</t>
+  </si>
+  <si>
+    <t>新开店铺后，实名认证通过，微信付款后，乌茶邦商户简称显示为另一个结算主体的简称，支付通道异常导致。</t>
+  </si>
+  <si>
+    <t>无需更改结算账户简称，联系远程组审核，将异常汇报，等待处理。</t>
+  </si>
+  <si>
+    <t>纳西老太</t>
+  </si>
+  <si>
+    <t>结账单不打印，收银机器卡顿</t>
+  </si>
+  <si>
+    <t>C盘存储空间已满，导致打印任务无法正常打印，收银机器卡顿，清理磁盘缓存文件，并删除无用程序，将安装在C盘的部分程序迁移到其他分区。</t>
   </si>
 </sst>
 </file>
@@ -156,10 +183,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -193,6 +220,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -208,6 +250,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -218,9 +306,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -241,97 +329,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,187 +379,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,11 +588,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,6 +638,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -617,47 +685,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -666,10 +693,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -678,133 +705,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1184,10 +1211,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1461,6 +1488,66 @@
         <v>44</v>
       </c>
     </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="8">
+        <v>43210</v>
+      </c>
+      <c r="B14" s="3">
+        <v>16</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" ht="27" spans="1:6">
+      <c r="A15" s="8">
+        <v>43210</v>
+      </c>
+      <c r="B15" s="3">
+        <v>16</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" ht="27" spans="1:6">
+      <c r="A16" s="8">
+        <v>43211</v>
+      </c>
+      <c r="B16" s="3">
+        <v>16</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/问题记录/《项目问题记录表》-南京实施部-陈乾维.xlsx
+++ b/问题记录/《项目问题记录表》-南京实施部-陈乾维.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
   <si>
     <t>日期</t>
   </si>
@@ -176,6 +176,12 @@
   </si>
   <si>
     <t>C盘存储空间已满，导致打印任务无法正常打印，收银机器卡顿，清理磁盘缓存文件，并删除无用程序，将安装在C盘的部分程序迁移到其他分区。</t>
+  </si>
+  <si>
+    <t>网络连接正常，后厨不打单并报错</t>
+  </si>
+  <si>
+    <t>重装打印机驱动解决</t>
   </si>
 </sst>
 </file>
@@ -227,6 +233,81 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -250,60 +331,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,27 +356,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -379,6 +385,126 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -397,43 +523,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,37 +535,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,18 +547,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -517,49 +565,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,16 +594,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -613,21 +619,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -638,6 +629,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,21 +683,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -693,145 +699,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1211,10 +1217,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1548,6 +1554,26 @@
         <v>53</v>
       </c>
     </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="8">
+        <v>43218</v>
+      </c>
+      <c r="B17" s="3">
+        <v>17</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/问题记录/《项目问题记录表》-南京实施部-陈乾维.xlsx
+++ b/问题记录/《项目问题记录表》-南京实施部-陈乾维.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
   <si>
     <t>日期</t>
   </si>
@@ -182,6 +182,24 @@
   </si>
   <si>
     <t>重装打印机驱动解决</t>
+  </si>
+  <si>
+    <t>可呦米</t>
+  </si>
+  <si>
+    <t>实名认证后，微信支付的简称显示其他结算账号的简称，银行通道简称错误导致</t>
+  </si>
+  <si>
+    <t>联系远程审核组，反馈情况，让他负责联系爱农方面的人员进项修正</t>
+  </si>
+  <si>
+    <t>初见茶余</t>
+  </si>
+  <si>
+    <t>产品2.0，商户要求单号起始号为9开头，自定义设置值最高为200</t>
+  </si>
+  <si>
+    <t>问题群反馈后，得到优化后的新包，覆盖解决</t>
   </si>
 </sst>
 </file>
@@ -190,8 +208,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -233,6 +251,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -287,50 +328,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,6 +353,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -385,6 +403,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -439,6 +487,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -488,48 +548,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,6 +612,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -609,15 +651,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -629,36 +662,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -683,6 +686,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -699,10 +717,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -711,133 +729,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1217,10 +1235,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="D12" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1574,6 +1592,46 @@
         <v>55</v>
       </c>
     </row>
+    <row r="18" ht="27" spans="1:6">
+      <c r="A18" s="8">
+        <v>43227</v>
+      </c>
+      <c r="B18" s="3">
+        <v>19</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="8">
+        <v>43227</v>
+      </c>
+      <c r="B19" s="3">
+        <v>19</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
